--- a/Data/Excel_Wide/camino_transportation_wide.xlsx
+++ b/Data/Excel_Wide/camino_transportation_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Sin establecer</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -493,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>599</v>
+        <v>1198</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -508,7 +513,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>643</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1325</v>
+        <v>2650</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -539,7 +547,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1401</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -555,13 +566,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2864</v>
+        <v>5728</v>
       </c>
       <c r="E4" t="n">
-        <v>201</v>
+        <v>402</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -570,7 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3105</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -586,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>14172</v>
+        <v>28344</v>
       </c>
       <c r="E5" t="n">
-        <v>1282</v>
+        <v>2564</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -601,7 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15554</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -617,22 +634,25 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>14312</v>
+        <v>28624</v>
       </c>
       <c r="E6" t="n">
-        <v>2363</v>
+        <v>4726</v>
       </c>
       <c r="F6" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16860</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -648,22 +668,25 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>15632</v>
+        <v>31264</v>
       </c>
       <c r="E7" t="n">
-        <v>3476</v>
+        <v>6952</v>
       </c>
       <c r="F7" t="n">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19295</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -679,22 +702,25 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>28124</v>
+        <v>56248</v>
       </c>
       <c r="E8" t="n">
-        <v>3404</v>
+        <v>6808</v>
       </c>
       <c r="F8" t="n">
-        <v>345</v>
+        <v>690</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31891</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -710,22 +736,25 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>39977</v>
+        <v>79954</v>
       </c>
       <c r="E9" t="n">
-        <v>5229</v>
+        <v>10458</v>
       </c>
       <c r="F9" t="n">
-        <v>385</v>
+        <v>770</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45601</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -741,22 +770,25 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>19312</v>
+        <v>38624</v>
       </c>
       <c r="E10" t="n">
-        <v>3191</v>
+        <v>6382</v>
       </c>
       <c r="F10" t="n">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22752</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -772,22 +804,25 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>12951</v>
+        <v>25902</v>
       </c>
       <c r="E11" t="n">
-        <v>1496</v>
+        <v>2992</v>
       </c>
       <c r="F11" t="n">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14556</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -803,22 +838,25 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>4066</v>
+        <v>8132</v>
       </c>
       <c r="E12" t="n">
-        <v>308</v>
+        <v>616</v>
       </c>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4410</v>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -834,13 +872,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>3555</v>
+        <v>7110</v>
       </c>
       <c r="E13" t="n">
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="F13" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -849,7 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3802</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -865,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>244</v>
+        <v>488</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,7 +921,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>269</v>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -896,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>539</v>
+        <v>1078</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -911,7 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>565</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -927,13 +974,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2790</v>
+        <v>5580</v>
       </c>
       <c r="E16" t="n">
-        <v>321</v>
+        <v>642</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -942,7 +989,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3121</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -958,22 +1008,25 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>2968</v>
+        <v>5936</v>
       </c>
       <c r="E17" t="n">
-        <v>329</v>
+        <v>658</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3307</v>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +1042,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>7348</v>
+        <v>14696</v>
       </c>
       <c r="E18" t="n">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9310</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -1020,22 +1076,25 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>9560</v>
+        <v>19120</v>
       </c>
       <c r="E19" t="n">
-        <v>3039</v>
+        <v>6078</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>12619</v>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -1051,22 +1110,25 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>15810</v>
+        <v>31620</v>
       </c>
       <c r="E20" t="n">
-        <v>2918</v>
+        <v>5836</v>
       </c>
       <c r="F20" t="n">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>18804</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -1082,22 +1144,25 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>19766</v>
+        <v>39532</v>
       </c>
       <c r="E21" t="n">
-        <v>4991</v>
+        <v>9982</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24831</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -1113,22 +1178,25 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>9807</v>
+        <v>19614</v>
       </c>
       <c r="E22" t="n">
-        <v>2348</v>
+        <v>4696</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>12168</v>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -1144,22 +1212,25 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>5953</v>
+        <v>11906</v>
       </c>
       <c r="E23" t="n">
-        <v>905</v>
+        <v>1810</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6873</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -1175,13 +1246,13 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>1269</v>
+        <v>2538</v>
       </c>
       <c r="E24" t="n">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1190,7 +1261,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1388</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -1206,13 +1280,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>621</v>
+        <v>1242</v>
       </c>
       <c r="E25" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1221,7 +1295,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>668</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -1237,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>299</v>
+        <v>598</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1252,7 +1329,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -1268,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>329</v>
+        <v>658</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1283,7 +1363,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>351</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -1299,22 +1382,25 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1020</v>
+        <v>2040</v>
       </c>
       <c r="E28" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1096</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -1330,22 +1416,25 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>6289</v>
+        <v>12578</v>
       </c>
       <c r="E29" t="n">
-        <v>1135</v>
+        <v>2270</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7451</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -1361,22 +1450,25 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8254</v>
+        <v>16508</v>
       </c>
       <c r="E30" t="n">
-        <v>1862</v>
+        <v>3724</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10147</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -1392,22 +1484,25 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>9850</v>
+        <v>19700</v>
       </c>
       <c r="E31" t="n">
-        <v>3112</v>
+        <v>6224</v>
       </c>
       <c r="F31" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13011</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -1423,13 +1518,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>15732</v>
+        <v>31464</v>
       </c>
       <c r="E32" t="n">
-        <v>2925</v>
+        <v>5850</v>
       </c>
       <c r="F32" t="n">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1438,7 +1533,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>18720</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -1454,22 +1552,25 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>20856</v>
+        <v>41712</v>
       </c>
       <c r="E33" t="n">
-        <v>5274</v>
+        <v>10548</v>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26183</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -1485,22 +1586,25 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>10687</v>
+        <v>21374</v>
       </c>
       <c r="E34" t="n">
-        <v>2749</v>
+        <v>5498</v>
       </c>
       <c r="F34" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>13470</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -1516,22 +1620,25 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>6681</v>
+        <v>13362</v>
       </c>
       <c r="E35" t="n">
-        <v>991</v>
+        <v>1982</v>
       </c>
       <c r="F35" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7700</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -1547,22 +1654,25 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>1574</v>
+        <v>3148</v>
       </c>
       <c r="E36" t="n">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1755</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -1578,13 +1688,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>782</v>
+        <v>1564</v>
       </c>
       <c r="E37" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1593,7 +1703,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>848</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1624,7 +1737,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -1640,10 +1756,10 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>638</v>
+        <v>1276</v>
       </c>
       <c r="E39" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1655,7 +1771,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>665</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -1671,13 +1790,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1530</v>
+        <v>3060</v>
       </c>
       <c r="E40" t="n">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="F40" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1686,7 +1805,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1680</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -1702,22 +1824,25 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>6795</v>
+        <v>13590</v>
       </c>
       <c r="E41" t="n">
-        <v>1283</v>
+        <v>2566</v>
       </c>
       <c r="F41" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8115</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -1733,22 +1858,25 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>10701</v>
+        <v>21402</v>
       </c>
       <c r="E42" t="n">
-        <v>2197</v>
+        <v>4394</v>
       </c>
       <c r="F42" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>12924</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -1764,22 +1892,25 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>11999</v>
+        <v>23998</v>
       </c>
       <c r="E43" t="n">
-        <v>3136</v>
+        <v>6272</v>
       </c>
       <c r="F43" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>15182</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -1795,22 +1926,25 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>16959</v>
+        <v>33918</v>
       </c>
       <c r="E44" t="n">
-        <v>3150</v>
+        <v>6300</v>
       </c>
       <c r="F44" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>20156</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -1826,22 +1960,25 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>21899</v>
+        <v>43798</v>
       </c>
       <c r="E45" t="n">
-        <v>5297</v>
+        <v>10594</v>
       </c>
       <c r="F45" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>27289</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -1857,13 +1994,13 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>12306</v>
+        <v>24612</v>
       </c>
       <c r="E46" t="n">
-        <v>2925</v>
+        <v>5850</v>
       </c>
       <c r="F46" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1872,7 +2009,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>15282</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -1903,6 +2043,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
         <v>9443</v>
       </c>
     </row>
@@ -1934,6 +2077,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
         <v>2496</v>
       </c>
     </row>
@@ -1965,6 +2111,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>795</v>
       </c>
     </row>
@@ -1996,6 +2145,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>306</v>
       </c>
     </row>
@@ -2027,6 +2179,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>703</v>
       </c>
     </row>
@@ -2058,6 +2213,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>5327</v>
       </c>
     </row>
@@ -2089,6 +2247,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>5648</v>
       </c>
     </row>
@@ -2120,6 +2281,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>16001</v>
       </c>
     </row>
@@ -2151,6 +2315,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>15904</v>
       </c>
     </row>
@@ -2182,6 +2349,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>21066</v>
       </c>
     </row>
@@ -2213,6 +2383,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>29996</v>
       </c>
     </row>
@@ -2244,6 +2417,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>17378</v>
       </c>
     </row>
@@ -2275,6 +2451,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>9878</v>
       </c>
     </row>
@@ -2306,6 +2485,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>2309</v>
       </c>
     </row>
@@ -2337,6 +2519,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>1085</v>
       </c>
     </row>
@@ -2368,6 +2553,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
         <v>523</v>
       </c>
     </row>
@@ -2399,6 +2587,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>698</v>
       </c>
     </row>
@@ -2430,6 +2621,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -2461,6 +2655,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>10316</v>
       </c>
     </row>
@@ -2492,6 +2689,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>16498</v>
       </c>
     </row>
@@ -2523,6 +2723,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>19354</v>
       </c>
     </row>
@@ -2554,6 +2757,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>26752</v>
       </c>
     </row>
@@ -2585,6 +2791,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>35546</v>
       </c>
     </row>
@@ -2616,6 +2825,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>20623</v>
       </c>
     </row>
@@ -2647,6 +2859,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>11731</v>
       </c>
     </row>
@@ -2678,6 +2893,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>2353</v>
       </c>
     </row>
@@ -2709,6 +2927,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>1010</v>
       </c>
     </row>
@@ -2740,6 +2961,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>1188</v>
       </c>
     </row>
@@ -2771,6 +2995,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -2802,6 +3029,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
         <v>5883</v>
       </c>
     </row>
@@ -2833,6 +3063,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>19587</v>
       </c>
     </row>
@@ -2864,6 +3097,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>28846</v>
       </c>
     </row>
@@ -2895,6 +3131,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>33756</v>
       </c>
     </row>
@@ -2926,6 +3165,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>42466</v>
       </c>
     </row>
@@ -2957,6 +3199,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>61534</v>
       </c>
     </row>
@@ -2988,6 +3233,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>36848</v>
       </c>
     </row>
@@ -3019,6 +3267,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>26598</v>
       </c>
     </row>
@@ -3050,6 +3301,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>8075</v>
       </c>
     </row>
@@ -3081,6 +3335,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>5967</v>
       </c>
     </row>
@@ -3112,6 +3369,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>644</v>
       </c>
     </row>
@@ -3143,6 +3403,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
         <v>820</v>
       </c>
     </row>
@@ -3174,6 +3437,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>3023</v>
       </c>
     </row>
@@ -3205,6 +3471,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>14154</v>
       </c>
     </row>
@@ -3236,6 +3505,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>19805</v>
       </c>
     </row>
@@ -3267,6 +3539,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>25239</v>
       </c>
     </row>
@@ -3298,6 +3573,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>30842</v>
       </c>
     </row>
@@ -3329,6 +3607,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>41489</v>
       </c>
     </row>
@@ -3360,6 +3641,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>26023</v>
       </c>
     </row>
@@ -3391,6 +3675,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>16243</v>
       </c>
     </row>
@@ -3422,6 +3709,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>3591</v>
       </c>
     </row>
@@ -3453,6 +3743,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -3484,6 +3777,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>872</v>
       </c>
     </row>
@@ -3515,6 +3811,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>1305</v>
       </c>
     </row>
@@ -3546,6 +3845,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
         <v>3260</v>
       </c>
     </row>
@@ -3577,6 +3879,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
         <v>14749</v>
       </c>
     </row>
@@ -3608,6 +3913,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>21776</v>
       </c>
     </row>
@@ -3639,6 +3947,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>25517</v>
       </c>
     </row>
@@ -3670,6 +3981,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
         <v>32818</v>
       </c>
     </row>
@@ -3701,6 +4015,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>41096</v>
       </c>
     </row>
@@ -3732,6 +4049,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>27321</v>
       </c>
     </row>
@@ -3763,6 +4083,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
         <v>18091</v>
       </c>
     </row>
@@ -3794,6 +4117,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
         <v>4170</v>
       </c>
     </row>
@@ -3825,6 +4151,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>1483</v>
       </c>
     </row>
@@ -3856,6 +4185,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
         <v>806</v>
       </c>
     </row>
@@ -3887,6 +4219,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
         <v>1382</v>
       </c>
     </row>
@@ -3918,6 +4253,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
         <v>7228</v>
       </c>
     </row>
@@ -3949,6 +4287,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
         <v>11532</v>
       </c>
     </row>
@@ -3980,6 +4321,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
         <v>25205</v>
       </c>
     </row>
@@ -4011,6 +4355,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
         <v>29374</v>
       </c>
     </row>
@@ -4042,6 +4389,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>36559</v>
       </c>
     </row>
@@ -4073,6 +4423,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
         <v>46726</v>
       </c>
     </row>
@@ -4104,6 +4457,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
         <v>30894</v>
       </c>
     </row>
@@ -4135,6 +4491,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
         <v>19607</v>
       </c>
     </row>
@@ -4166,6 +4525,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
         <v>4907</v>
       </c>
     </row>
@@ -4197,6 +4559,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
         <v>1659</v>
       </c>
     </row>
@@ -4228,6 +4593,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
         <v>906</v>
       </c>
     </row>
@@ -4259,6 +4627,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
         <v>970</v>
       </c>
     </row>
@@ -4290,6 +4661,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
         <v>3150</v>
       </c>
     </row>
@@ -4321,6 +4695,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
         <v>17347</v>
       </c>
     </row>
@@ -4352,6 +4729,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
         <v>27354</v>
       </c>
     </row>
@@ -4383,6 +4763,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
         <v>33021</v>
       </c>
     </row>
@@ -4414,6 +4797,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
         <v>39581</v>
       </c>
     </row>
@@ -4445,6 +4831,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
         <v>51218</v>
       </c>
     </row>
@@ -4476,6 +4865,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
         <v>34457</v>
       </c>
     </row>
@@ -4507,6 +4899,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
         <v>23205</v>
       </c>
     </row>
@@ -4538,6 +4933,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
         <v>4803</v>
       </c>
     </row>
@@ -4569,6 +4967,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
         <v>1870</v>
       </c>
     </row>
@@ -4600,6 +5001,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
         <v>1217</v>
       </c>
     </row>
@@ -4631,6 +5035,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
         <v>1544</v>
       </c>
     </row>
@@ -4662,6 +5069,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
         <v>5080</v>
       </c>
     </row>
@@ -4693,6 +5103,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
         <v>17721</v>
       </c>
     </row>
@@ -4724,6 +5137,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
         <v>31076</v>
       </c>
     </row>
@@ -4755,6 +5171,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
         <v>35923</v>
       </c>
     </row>
@@ -4786,6 +5205,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
         <v>44794</v>
       </c>
     </row>
@@ -4817,6 +5239,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
         <v>54794</v>
       </c>
     </row>
@@ -4848,6 +5273,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
         <v>37429</v>
       </c>
     </row>
@@ -4879,6 +5307,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
         <v>25576</v>
       </c>
     </row>
@@ -4910,6 +5341,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
         <v>5228</v>
       </c>
     </row>
@@ -4941,6 +5375,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
         <v>2062</v>
       </c>
     </row>
@@ -4972,6 +5409,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
         <v>1304</v>
       </c>
     </row>
@@ -5003,6 +5443,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
         <v>1733</v>
       </c>
     </row>
@@ -5034,6 +5477,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
         <v>11067</v>
       </c>
     </row>
@@ -5065,6 +5511,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
         <v>15100</v>
       </c>
     </row>
@@ -5096,6 +5545,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
         <v>32776</v>
       </c>
     </row>
@@ -5127,6 +5579,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
         <v>39070</v>
       </c>
     </row>
@@ -5158,6 +5613,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
         <v>45471</v>
       </c>
     </row>
@@ -5189,6 +5647,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
         <v>53704</v>
       </c>
     </row>
@@ -5220,6 +5681,9 @@
         <v>10</v>
       </c>
       <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
         <v>40149</v>
       </c>
     </row>
@@ -5251,6 +5715,9 @@
         <v>3</v>
       </c>
       <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
         <v>28222</v>
       </c>
     </row>
@@ -5282,6 +5749,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
         <v>6394</v>
       </c>
     </row>
@@ -5313,6 +5783,9 @@
         <v>2</v>
       </c>
       <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
         <v>2864</v>
       </c>
     </row>
@@ -5344,6 +5817,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
         <v>1354</v>
       </c>
     </row>
@@ -5375,6 +5851,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
         <v>1696</v>
       </c>
     </row>
@@ -5406,6 +5885,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
         <v>5176</v>
       </c>
     </row>
@@ -5437,6 +5919,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
         <v>26925</v>
       </c>
     </row>
@@ -5468,6 +5953,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
         <v>35347</v>
       </c>
     </row>
@@ -5499,6 +5987,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
         <v>41619</v>
       </c>
     </row>
@@ -5530,6 +6021,9 @@
         <v>94</v>
       </c>
       <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
         <v>47470</v>
       </c>
     </row>
@@ -5561,6 +6055,9 @@
         <v>56</v>
       </c>
       <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
         <v>57680</v>
       </c>
     </row>
@@ -5592,6 +6089,9 @@
         <v>2</v>
       </c>
       <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
         <v>42189</v>
       </c>
     </row>
@@ -5623,6 +6123,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
         <v>31341</v>
       </c>
     </row>
@@ -5654,6 +6157,9 @@
         <v>1</v>
       </c>
       <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
         <v>7346</v>
       </c>
     </row>
@@ -5685,6 +6191,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
         <v>2893</v>
       </c>
     </row>
@@ -5716,6 +6225,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
         <v>1627</v>
       </c>
     </row>
@@ -5747,6 +6259,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
         <v>2181</v>
       </c>
     </row>
@@ -5778,6 +6293,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
         <v>11056</v>
       </c>
     </row>
@@ -5809,6 +6327,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
         <v>22068</v>
       </c>
     </row>
@@ -5840,6 +6361,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -5871,6 +6395,9 @@
         <v>1</v>
       </c>
       <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
         <v>45685</v>
       </c>
     </row>
@@ -5902,6 +6429,9 @@
         <v>75</v>
       </c>
       <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
         <v>50867</v>
       </c>
     </row>
@@ -5933,6 +6463,9 @@
         <v>51</v>
       </c>
       <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
         <v>60415</v>
       </c>
     </row>
@@ -5964,6 +6497,9 @@
         <v>3</v>
       </c>
       <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
         <v>47006</v>
       </c>
     </row>
@@ -5995,6 +6531,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
         <v>35602</v>
       </c>
     </row>
@@ -6026,6 +6565,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
         <v>7651</v>
       </c>
     </row>
@@ -6057,6 +6599,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
         <v>2553</v>
       </c>
     </row>
@@ -6088,6 +6633,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
         <v>1651</v>
       </c>
     </row>
@@ -6119,6 +6667,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
         <v>2119</v>
       </c>
     </row>
@@ -6150,6 +6701,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
         <v>7474</v>
       </c>
     </row>
@@ -6181,6 +6735,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
         <v>31722</v>
       </c>
     </row>
@@ -6212,6 +6769,9 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
         <v>46673</v>
       </c>
     </row>
@@ -6243,6 +6803,9 @@
         <v>19</v>
       </c>
       <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
         <v>49058</v>
       </c>
     </row>
@@ -6274,6 +6837,9 @@
         <v>91</v>
       </c>
       <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
         <v>53319</v>
       </c>
     </row>
@@ -6305,6 +6871,9 @@
         <v>108</v>
       </c>
       <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
         <v>62814</v>
       </c>
     </row>
@@ -6336,6 +6905,9 @@
         <v>6</v>
       </c>
       <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
         <v>45653</v>
       </c>
     </row>
@@ -6367,6 +6939,9 @@
         <v>10</v>
       </c>
       <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
         <v>36118</v>
       </c>
     </row>
@@ -6398,6 +6973,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
         <v>8274</v>
       </c>
     </row>
@@ -6429,6 +7007,9 @@
         <v>5</v>
       </c>
       <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
         <v>2710</v>
       </c>
     </row>
@@ -6460,6 +7041,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
         <v>2001</v>
       </c>
     </row>
@@ -6491,6 +7075,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
         <v>3076</v>
       </c>
     </row>
@@ -6522,6 +7109,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
         <v>1948</v>
       </c>
     </row>
@@ -6553,6 +7143,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
         <v>12</v>
       </c>
     </row>
@@ -6584,6 +7177,9 @@
         <v>7</v>
       </c>
       <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
         <v>9752</v>
       </c>
     </row>
@@ -6615,6 +7211,9 @@
         <v>11</v>
       </c>
       <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
         <v>19812</v>
       </c>
     </row>
@@ -6646,6 +7245,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
         <v>10441</v>
       </c>
     </row>
@@ -6677,6 +7279,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
         <v>6418</v>
       </c>
     </row>
@@ -6708,6 +7313,9 @@
         <v>5</v>
       </c>
       <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
         <v>585</v>
       </c>
     </row>
@@ -6739,6 +7347,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
         <v>99</v>
       </c>
     </row>
@@ -6770,6 +7381,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
         <v>60</v>
       </c>
     </row>
@@ -6801,6 +7415,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6832,6 +7449,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
         <v>194</v>
       </c>
     </row>
@@ -6863,6 +7483,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
         <v>1024</v>
       </c>
     </row>
@@ -6894,6 +7517,9 @@
         <v>1</v>
       </c>
       <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
         <v>4295</v>
       </c>
     </row>
@@ -6925,6 +7551,9 @@
         <v>52</v>
       </c>
       <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
         <v>14824</v>
       </c>
     </row>
@@ -6956,6 +7585,9 @@
         <v>33</v>
       </c>
       <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
         <v>33963</v>
       </c>
     </row>
@@ -6987,6 +7619,9 @@
         <v>41</v>
       </c>
       <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
         <v>43575</v>
       </c>
     </row>
@@ -7018,6 +7653,9 @@
         <v>29</v>
       </c>
       <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
         <v>37463</v>
       </c>
     </row>
@@ -7049,6 +7687,9 @@
         <v>2</v>
       </c>
       <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
         <v>31170</v>
       </c>
     </row>
@@ -7080,6 +7721,9 @@
         <v>4</v>
       </c>
       <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
         <v>9094</v>
       </c>
     </row>
@@ -7111,6 +7755,9 @@
         <v>2</v>
       </c>
       <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
         <v>1193</v>
       </c>
     </row>
@@ -7142,6 +7789,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
         <v>1617</v>
       </c>
     </row>
@@ -7173,6 +7823,9 @@
         <v>8</v>
       </c>
       <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
         <v>2034</v>
       </c>
     </row>
@@ -7204,6 +7857,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
         <v>7389</v>
       </c>
     </row>
@@ -7235,6 +7891,9 @@
         <v>25</v>
       </c>
       <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
         <v>34283</v>
       </c>
     </row>
@@ -7266,6 +7925,9 @@
         <v>14</v>
       </c>
       <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
         <v>48254</v>
       </c>
     </row>
@@ -7297,6 +7959,9 @@
         <v>128</v>
       </c>
       <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
         <v>58012</v>
       </c>
     </row>
@@ -7328,6 +7993,9 @@
         <v>138</v>
       </c>
       <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
         <v>67374</v>
       </c>
     </row>
@@ -7359,6 +8027,9 @@
         <v>45</v>
       </c>
       <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
         <v>85842</v>
       </c>
     </row>
@@ -7390,6 +8061,9 @@
         <v>77</v>
       </c>
       <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
         <v>66196</v>
       </c>
     </row>
@@ -7421,7 +8095,78 @@
         <v>3</v>
       </c>
       <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>10895</v>
+      </c>
+      <c r="E226" t="n">
+        <v>367</v>
+      </c>
+      <c r="F226" t="n">
+        <v>12</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>8</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4513</v>
+      </c>
+      <c r="E227" t="n">
+        <v>165</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_transportation_wide.xlsx
+++ b/Data/Excel_Wide/camino_transportation_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1198</v>
+        <v>599</v>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -532,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2650</v>
+        <v>1325</v>
       </c>
       <c r="E3" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -566,13 +566,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5728</v>
+        <v>2864</v>
       </c>
       <c r="E4" t="n">
-        <v>402</v>
+        <v>201</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -600,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>28344</v>
+        <v>14172</v>
       </c>
       <c r="E5" t="n">
-        <v>2564</v>
+        <v>1282</v>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -634,16 +634,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>28624</v>
+        <v>14312</v>
       </c>
       <c r="E6" t="n">
-        <v>4726</v>
+        <v>2363</v>
       </c>
       <c r="F6" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>31264</v>
+        <v>15632</v>
       </c>
       <c r="E7" t="n">
-        <v>6952</v>
+        <v>3476</v>
       </c>
       <c r="F7" t="n">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -702,16 +702,16 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>56248</v>
+        <v>28124</v>
       </c>
       <c r="E8" t="n">
-        <v>6808</v>
+        <v>3404</v>
       </c>
       <c r="F8" t="n">
-        <v>690</v>
+        <v>345</v>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -736,16 +736,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>79954</v>
+        <v>39977</v>
       </c>
       <c r="E9" t="n">
-        <v>10458</v>
+        <v>5229</v>
       </c>
       <c r="F9" t="n">
-        <v>770</v>
+        <v>385</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -770,16 +770,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>38624</v>
+        <v>19312</v>
       </c>
       <c r="E10" t="n">
-        <v>6382</v>
+        <v>3191</v>
       </c>
       <c r="F10" t="n">
-        <v>486</v>
+        <v>243</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -804,16 +804,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>25902</v>
+        <v>12951</v>
       </c>
       <c r="E11" t="n">
-        <v>2992</v>
+        <v>1496</v>
       </c>
       <c r="F11" t="n">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -838,16 +838,16 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>8132</v>
+        <v>4066</v>
       </c>
       <c r="E12" t="n">
-        <v>616</v>
+        <v>308</v>
       </c>
       <c r="F12" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -872,13 +872,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>7110</v>
+        <v>3555</v>
       </c>
       <c r="E13" t="n">
-        <v>366</v>
+        <v>183</v>
       </c>
       <c r="F13" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -906,13 +906,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>488</v>
+        <v>244</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -940,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1078</v>
+        <v>539</v>
       </c>
       <c r="E15" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -974,13 +974,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5580</v>
+        <v>2790</v>
       </c>
       <c r="E16" t="n">
-        <v>642</v>
+        <v>321</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -1008,16 +1008,16 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>5936</v>
+        <v>2968</v>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>329</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -1042,16 +1042,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>14696</v>
+        <v>7348</v>
       </c>
       <c r="E18" t="n">
-        <v>3840</v>
+        <v>1920</v>
       </c>
       <c r="F18" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -1076,16 +1076,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>19120</v>
+        <v>9560</v>
       </c>
       <c r="E19" t="n">
-        <v>6078</v>
+        <v>3039</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -1110,16 +1110,16 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>31620</v>
+        <v>15810</v>
       </c>
       <c r="E20" t="n">
-        <v>5836</v>
+        <v>2918</v>
       </c>
       <c r="F20" t="n">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -1144,16 +1144,16 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>39532</v>
+        <v>19766</v>
       </c>
       <c r="E21" t="n">
-        <v>9982</v>
+        <v>4991</v>
       </c>
       <c r="F21" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -1178,16 +1178,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>19614</v>
+        <v>9807</v>
       </c>
       <c r="E22" t="n">
-        <v>4696</v>
+        <v>2348</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -1212,16 +1212,16 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>11906</v>
+        <v>5953</v>
       </c>
       <c r="E23" t="n">
-        <v>1810</v>
+        <v>905</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -1246,13 +1246,13 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2538</v>
+        <v>1269</v>
       </c>
       <c r="E24" t="n">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -1280,13 +1280,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>1242</v>
+        <v>621</v>
       </c>
       <c r="E25" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -1314,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>598</v>
+        <v>299</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -1348,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>658</v>
+        <v>329</v>
       </c>
       <c r="E27" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -1382,16 +1382,16 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>2040</v>
+        <v>1020</v>
       </c>
       <c r="E28" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>12578</v>
+        <v>6289</v>
       </c>
       <c r="E29" t="n">
-        <v>2270</v>
+        <v>1135</v>
       </c>
       <c r="F29" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -1450,16 +1450,16 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>16508</v>
+        <v>8254</v>
       </c>
       <c r="E30" t="n">
-        <v>3724</v>
+        <v>1862</v>
       </c>
       <c r="F30" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -1484,16 +1484,16 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>19700</v>
+        <v>9850</v>
       </c>
       <c r="E31" t="n">
-        <v>6224</v>
+        <v>3112</v>
       </c>
       <c r="F31" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -1518,13 +1518,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>31464</v>
+        <v>15732</v>
       </c>
       <c r="E32" t="n">
-        <v>5850</v>
+        <v>2925</v>
       </c>
       <c r="F32" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -1552,16 +1552,16 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>41712</v>
+        <v>20856</v>
       </c>
       <c r="E33" t="n">
-        <v>10548</v>
+        <v>5274</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -1586,16 +1586,16 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>21374</v>
+        <v>10687</v>
       </c>
       <c r="E34" t="n">
-        <v>5498</v>
+        <v>2749</v>
       </c>
       <c r="F34" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -1620,16 +1620,16 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>13362</v>
+        <v>6681</v>
       </c>
       <c r="E35" t="n">
-        <v>1982</v>
+        <v>991</v>
       </c>
       <c r="F35" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -1654,16 +1654,16 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>3148</v>
+        <v>1574</v>
       </c>
       <c r="E36" t="n">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="F36" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -1688,13 +1688,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>1564</v>
+        <v>782</v>
       </c>
       <c r="E37" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -1722,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>644</v>
+        <v>322</v>
       </c>
       <c r="E38" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -1756,10 +1756,10 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>1276</v>
+        <v>638</v>
       </c>
       <c r="E39" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -1790,13 +1790,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>3060</v>
+        <v>1530</v>
       </c>
       <c r="E40" t="n">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="F40" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -1824,16 +1824,16 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>13590</v>
+        <v>6795</v>
       </c>
       <c r="E41" t="n">
-        <v>2566</v>
+        <v>1283</v>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -1858,16 +1858,16 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>21402</v>
+        <v>10701</v>
       </c>
       <c r="E42" t="n">
-        <v>4394</v>
+        <v>2197</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -1892,16 +1892,16 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>23998</v>
+        <v>11999</v>
       </c>
       <c r="E43" t="n">
-        <v>6272</v>
+        <v>3136</v>
       </c>
       <c r="F43" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -1926,16 +1926,16 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>33918</v>
+        <v>16959</v>
       </c>
       <c r="E44" t="n">
-        <v>6300</v>
+        <v>3150</v>
       </c>
       <c r="F44" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -1960,16 +1960,16 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>43798</v>
+        <v>21899</v>
       </c>
       <c r="E45" t="n">
-        <v>10594</v>
+        <v>5297</v>
       </c>
       <c r="F45" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -1994,13 +1994,13 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>24612</v>
+        <v>12306</v>
       </c>
       <c r="E46" t="n">
-        <v>5850</v>
+        <v>2925</v>
       </c>
       <c r="F46" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -8167,6 +8167,40 @@
       </c>
       <c r="J227" t="n">
         <v>4683</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1964</v>
+      </c>
+      <c r="E228" t="n">
+        <v>61</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
